--- a/biology/Médecine/Maladie_coronarienne/Maladie_coronarienne.xlsx
+++ b/biology/Médecine/Maladie_coronarienne/Maladie_coronarienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie coronarienne, ou coronaropathie, ou insuffisance coronarienne, est une maladie des artères qui vascularisent le cœur (artères coronaires), ayant pour conséquence une ischémie myocardique, c'est-à-dire un apport en sang insuffisant (ischémie) au muscle cardiaque (myocarde). On distingue classiquement l'angine de poitrine et l'infarctus du myocarde, selon qu'il existe une « simple » souffrance ou une mort (nécrose) d'une partie des cellules du myocarde.
 Cette maladie se manifeste principalement par une douleur thoracique caractéristique. Elle peut aussi provoquer une insuffisance cardiaque, une syncope, une mort subite, un trouble du rythme ventriculaire. Enfin, elle peut être asymptomatique (ischémie myocardique silencieuse). De nombreux examens complémentaires permettent de l'explorer, les principaux étant l'électrocardiogramme, l'épreuve d'effort et la coronarographie.
@@ -513,7 +525,9 @@
           <t>Rappel anatomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères coronaires sont les artères qui vascularisent le cœur, et notamment sa composante musculaire, le myocarde. Il existe une artère coronaire gauche et une artère coronaire droite. L'artère coronaire gauche vascularise le ventricule gauche et l'oreillette gauche, tandis que l'artère coronaire droite vascularise le ventricule droit et l'oreillette droite.
 </t>
@@ -544,7 +558,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le rétrécissement de l'artère peut avoir plusieurs significations :
 le plus souvent, il s'agit d'une plaque d'athérome qui obstrue la lumière de l'artère. Les facteurs de risque principaux sont dans ce cas l'hérédité, l'âge, le sexe masculin, le diabète sucré, le tabagisme, l'hypertension artérielle et l'hypercholestérolémie ;
@@ -578,10 +594,12 @@
           <t>Autres atteintes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certaines sont des malformations congénitales : naissance anormale d'une artère coronaire, ou présence d'une fistule entre une artère coronaire et une cavité cardiaque.
-L'artère coronaire peut être anévrysmale soit de manière isolée, soit (chez le jeune enfant) dans le cadre d'une maladie de Kawasaki. Chez l'adulte, une artère anévrismale est associée à un risque important de complications cardiaques[1]. Ces anévrismes sont acquis mais il peut exister un substrat génétique[2].</t>
+L'artère coronaire peut être anévrysmale soit de manière isolée, soit (chez le jeune enfant) dans le cadre d'une maladie de Kawasaki. Chez l'adulte, une artère anévrismale est associée à un risque important de complications cardiaques. Ces anévrismes sont acquis mais il peut exister un substrat génétique.</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La coronaropathie peut être asymptomatique ou se manifester uniquement lors d'un test de dépistage (ischémie myocardique silencieuse).
 Elle peut provoquer une angine de poitrine qui peut être stable (douleur pour un même type d'effort, sans aggravation).
@@ -646,17 +666,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mise en évidence d'une ischémie myocardique
-Plusieurs examens sont pratiqués dans ce but :
+          <t>Mise en évidence d'une ischémie myocardique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plusieurs examens sont pratiqués dans ce but :
 l'électrocardiogramme de repos permet de suggérer une souffrance myocardique évolutive ou ses séquelles ;
 l'épreuve d'effort est un test de dépistage sans valeur localisatrice (ne permet pas de déterminer avec certitude l'artère atteinte en cas de positivité) ;
 la scintigraphie myocardique à l'effort ou sous dipyridamole emploie un traceur radioactif se fixant sur le myocarde et permet un diagnostic topographique ;
 l'échographie de stress (dobutamine, à l'effort ou sous dipyridamole) visualise un défaut de contraction du myocarde en cas d'ischémie ;
 l'IRM cardiaque de stress a également une valeur localisatrice ;
-le score calcique (connu sous l'abréviation CAC, calcul du score calcique des artères coronaires) qui permet par tomodensitométrie ou par un coro-scanner de quantifier les calcifications témoignant de l’existence de processus entrant dans la pathogénie de l'athérosclérose[3].
-Visualisation des coronaires
-Le scanner coronaire permet de visualiser les gros troncs.
-La coronarographie reste l'examen de référence.</t>
+le score calcique (connu sous l'abréviation CAC, calcul du score calcique des artères coronaires) qui permet par tomodensitométrie ou par un coro-scanner de quantifier les calcifications témoignant de l’existence de processus entrant dans la pathogénie de l'athérosclérose.</t>
         </is>
       </c>
     </row>
@@ -681,24 +703,166 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Exploration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Visualisation des coronaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le scanner coronaire permet de visualiser les gros troncs.
+La coronarographie reste l'examen de référence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revascularisation des artères coronaires a fait l'objet de la publication de recommandations. Celles de l'« European Society of Cardiology » datent de 2018[4].
-Traitement de la lésion coronarienne
-Le seul moyen d'inverser le cours de la maladie est d'adopter un mode de vie sain : une alimentation saine et équilibrée, une activité physique régulière et un arrêt du tabagisme le cas échéant[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revascularisation des artères coronaires a fait l'objet de la publication de recommandations. Celles de l'« European Society of Cardiology » datent de 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement de la lésion coronarienne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le seul moyen d'inverser le cours de la maladie est d'adopter un mode de vie sain : une alimentation saine et équilibrée, une activité physique régulière et un arrêt du tabagisme le cas échéant.
 Différents traitements peuvent être proposés :
 médicamenteux : anti-agrégants plaquettaires (aspirine, clopidogrel), hypocholestérolémiants (statines), anti-angineux (bêta-bloquants, inhibiteurs calciques) ;
 une dilatation de l'artère responsable par voie endoluminale (angioplastie coronarienne) ;
-une chirurgie de pontage coronarien.
-Traitement des conséquences de l'atteinte coronarienne
-Voir articles :
+une chirurgie de pontage coronarien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitement des conséquences de l'atteinte coronarienne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Voir articles :
 Insuffisance cardiaque ;
-Infarctus du myocarde.
-Traitement des facteurs de risque de l'athérome
-Comme pour le traitement de l'athérosclérose, le moyen le plus efficace de l'éviter consiste à adopter un mode de vie sain[5] :
+Infarctus du myocarde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_coronarienne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitement des facteurs de risque de l'athérome</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour le traitement de l'athérosclérose, le moyen le plus efficace de l'éviter consiste à adopter un mode de vie sain :
 une alimentation saine et équilibrée ;
 une activité physique d'endurance régulière (marche rapide, vélo) pour un total de trois heures par semaine ;
 arrêter le tabagisme le cas échéant.
